--- a/Uploads/Servicios_2017.xlsx
+++ b/Uploads/Servicios_2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/o_perez_uniandes_edu_co/Documents/Inventario Productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{031D77D0-D8F5-4C5B-B870-04B1BC51C044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{031D77D0-D8F5-4C5B-B870-04B1BC51C044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C4CCED5-688F-4496-9A7F-6A2475DDA9B3}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{1E6A4EBB-0DF4-4F74-A6E8-7CB5F8FF8588}"/>
   </bookViews>
@@ -1676,13 +1676,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561153DD-C7CC-473B-9341-38DC94AF58AF}">
   <dimension ref="A1:X107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
     <col min="24" max="24" width="16" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1762,19 +1764,19 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>278</v>
       </c>
       <c r="B2" s="3">
-        <v>43014.510879629626</v>
+        <v>42755.615127314813</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1783,10 +1785,10 @@
         <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
@@ -1795,13 +1797,13 @@
         <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>34</v>
+        <v>282</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>36</v>
@@ -1832,19 +1834,19 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>284</v>
       </c>
       <c r="B3" s="3">
-        <v>43014.511400462965</v>
+        <v>42758.401539351849</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>285</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -1853,10 +1855,10 @@
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>287</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -1865,13 +1867,13 @@
         <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>34</v>
+        <v>282</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>36</v>
@@ -1902,19 +1904,19 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="B4" s="3">
-        <v>43014.511747685188</v>
+        <v>42759.652094907404</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -1923,10 +1925,10 @@
         <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -1935,13 +1937,13 @@
         <v>32</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>36</v>
@@ -1972,19 +1974,19 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>288</v>
       </c>
       <c r="B5" s="3">
-        <v>43014.512372685182</v>
+        <v>42759.653506944444</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>289</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1993,10 +1995,10 @@
         <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
@@ -2005,13 +2007,13 @@
         <v>32</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>34</v>
+        <v>282</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>36</v>
@@ -2042,46 +2044,46 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="B6" s="3">
-        <v>43014.512835648151</v>
+        <v>42759.658842592595</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>293</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>34</v>
+        <v>282</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>36</v>
@@ -2112,101 +2114,77 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>395</v>
       </c>
       <c r="B7" s="3">
-        <v>43014.513194444444</v>
+        <v>42759.691458333335</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>396</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>397</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>398</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>399</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="2">
-        <v>44651</v>
-      </c>
+      <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="B8" s="3">
-        <v>43014.513761574075</v>
+        <v>42759.698506944442</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
@@ -2215,13 +2193,13 @@
         <v>32</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>36</v>
@@ -2252,31 +2230,31 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="B9" s="3">
-        <v>43014.514490740738</v>
+        <v>42760.41474537037</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="F9" t="s">
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
@@ -2285,13 +2263,13 @@
         <v>32</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>36</v>
@@ -2322,46 +2300,46 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="B10" s="3">
-        <v>43014.514745370368</v>
+        <v>42767.364479166667</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>36</v>
@@ -2392,46 +2370,46 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="B11" s="3">
-        <v>43014.515081018515</v>
+        <v>42767.373553240737</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>36</v>
@@ -2462,16 +2440,16 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="B12" s="3">
-        <v>42769.646608796298</v>
+        <v>42767.37636574074</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>61</v>
@@ -2483,25 +2461,25 @@
         <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>36</v>
@@ -2532,19 +2510,19 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>374</v>
       </c>
       <c r="B13" s="3">
-        <v>42781.479016203702</v>
+        <v>42769.494108796294</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>375</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>376</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
@@ -2553,10 +2531,10 @@
         <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
@@ -2565,13 +2543,13 @@
         <v>32</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>64</v>
+        <v>377</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>65</v>
+        <v>378</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>66</v>
+        <v>379</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>36</v>
@@ -2602,31 +2580,31 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>294</v>
       </c>
       <c r="B14" s="3">
-        <v>43017.655462962961</v>
+        <v>42769.495555555557</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>295</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="J14" t="s">
         <v>31</v>
@@ -2635,13 +2613,13 @@
         <v>32</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>36</v>
@@ -2672,19 +2650,19 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="B15" s="3">
-        <v>43018.427847222221</v>
+        <v>42769.500104166669</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
@@ -2693,10 +2671,10 @@
         <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
         <v>31</v>
@@ -2705,13 +2683,13 @@
         <v>32</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>36</v>
@@ -2742,19 +2720,19 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="B16" s="3">
-        <v>43028.55364583333</v>
+        <v>42769.61859953704</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>297</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>88</v>
+        <v>280</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
@@ -2763,10 +2741,10 @@
         <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>298</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>299</v>
       </c>
       <c r="J16" t="s">
         <v>31</v>
@@ -2775,13 +2753,13 @@
         <v>32</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>91</v>
+        <v>281</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>92</v>
+        <v>282</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>93</v>
+        <v>283</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>36</v>
@@ -2812,31 +2790,31 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3">
-        <v>43018.419293981482</v>
+        <v>42769.646608796298</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
         <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="J17" t="s">
         <v>31</v>
@@ -2845,13 +2823,13 @@
         <v>32</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>36</v>
@@ -2882,31 +2860,31 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="B18" s="3">
-        <v>43018.419849537036</v>
+        <v>42769.652222222219</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="F18" t="s">
         <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>243</v>
       </c>
       <c r="J18" t="s">
         <v>31</v>
@@ -2915,13 +2893,13 @@
         <v>32</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>36</v>
@@ -2952,31 +2930,31 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>300</v>
       </c>
       <c r="B19" s="3">
-        <v>43011.701851851853</v>
+        <v>42769.653749999998</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>301</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="I19" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="J19" t="s">
         <v>31</v>
@@ -2985,13 +2963,13 @@
         <v>32</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>111</v>
+        <v>281</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>113</v>
+        <v>283</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>36</v>
@@ -3012,45 +2990,41 @@
         <v>0</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="V19" s="1">
-        <v>292</v>
-      </c>
-      <c r="W19" s="1">
-        <v>15</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
       <c r="X19" s="2">
-        <v>43124.494537037041</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>244</v>
       </c>
       <c r="B20" s="3">
-        <v>43011.708993055552</v>
+        <v>42769.658217592594</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>241</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="F20" t="s">
         <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>245</v>
       </c>
       <c r="I20" t="s">
-        <v>110</v>
+        <v>246</v>
       </c>
       <c r="J20" t="s">
         <v>31</v>
@@ -3059,13 +3033,13 @@
         <v>32</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>36</v>
@@ -3086,45 +3060,41 @@
         <v>0</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="V20" s="1">
-        <v>200</v>
-      </c>
-      <c r="W20" s="1">
-        <v>25</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
       <c r="X20" s="2">
-        <v>43195.442245370374</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>302</v>
       </c>
       <c r="B21" s="3">
-        <v>43017.656307870369</v>
+        <v>42769.659768518519</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>303</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="I21" t="s">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="J21" t="s">
         <v>31</v>
@@ -3133,13 +3103,13 @@
         <v>32</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>111</v>
+        <v>281</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>117</v>
+        <v>282</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>118</v>
+        <v>283</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>36</v>
@@ -3170,31 +3140,31 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>304</v>
       </c>
       <c r="B22" s="3">
-        <v>43018.455671296295</v>
+        <v>42769.663587962961</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>305</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>306</v>
       </c>
       <c r="I22" t="s">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="J22" t="s">
         <v>31</v>
@@ -3203,13 +3173,13 @@
         <v>32</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>111</v>
+        <v>281</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>117</v>
+        <v>282</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>118</v>
+        <v>283</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>36</v>
@@ -3240,31 +3210,31 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>380</v>
       </c>
       <c r="B23" s="3">
-        <v>43018.457002314812</v>
+        <v>42776.507835648146</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>381</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>108</v>
+        <v>376</v>
       </c>
       <c r="F23" t="s">
         <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>97</v>
+        <v>310</v>
       </c>
       <c r="I23" t="s">
-        <v>98</v>
+        <v>311</v>
       </c>
       <c r="J23" t="s">
         <v>31</v>
@@ -3273,13 +3243,13 @@
         <v>32</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>111</v>
+        <v>377</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>125</v>
+        <v>378</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>126</v>
+        <v>379</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>36</v>
@@ -3310,19 +3280,19 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="B24" s="3">
-        <v>43032.652673611112</v>
+        <v>42776.508379629631</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>309</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
@@ -3331,10 +3301,10 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>89</v>
+        <v>310</v>
       </c>
       <c r="I24" t="s">
-        <v>90</v>
+        <v>311</v>
       </c>
       <c r="J24" t="s">
         <v>31</v>
@@ -3343,13 +3313,13 @@
         <v>32</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>111</v>
+        <v>281</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>125</v>
+        <v>282</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>126</v>
+        <v>283</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>36</v>
@@ -3380,25 +3350,25 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>401</v>
       </c>
       <c r="B25" s="3">
-        <v>43011.685300925928</v>
+        <v>42776.616759259261</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>402</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="F25" t="s">
         <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s">
         <v>109</v>
@@ -3413,13 +3383,13 @@
         <v>32</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>132</v>
+        <v>404</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>133</v>
+        <v>405</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>134</v>
+        <v>406</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>36</v>
@@ -3450,31 +3420,31 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="B26" s="3">
-        <v>43011.686122685183</v>
+        <v>42781.479016203702</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
         <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="J26" t="s">
         <v>31</v>
@@ -3483,13 +3453,13 @@
         <v>32</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>36</v>
@@ -3520,19 +3490,19 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>382</v>
       </c>
       <c r="B27" s="3">
-        <v>43031.549537037034</v>
+        <v>42800.680266203701</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>383</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>131</v>
+        <v>376</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
@@ -3541,25 +3511,25 @@
         <v>28</v>
       </c>
       <c r="H27" t="s">
-        <v>141</v>
+        <v>326</v>
       </c>
       <c r="I27" t="s">
-        <v>142</v>
+        <v>327</v>
       </c>
       <c r="J27" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>132</v>
+        <v>377</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>133</v>
+        <v>378</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>134</v>
+        <v>379</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>36</v>
@@ -3590,19 +3560,19 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>247</v>
       </c>
       <c r="B28" s="3">
-        <v>43040.487187500003</v>
+        <v>42801.490439814814</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="F28" t="s">
         <v>27</v>
@@ -3611,10 +3581,10 @@
         <v>28</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="I28" t="s">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="J28" t="s">
         <v>31</v>
@@ -3623,13 +3593,13 @@
         <v>32</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>146</v>
+        <v>238</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>36</v>
@@ -3660,19 +3630,19 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="B29" s="3">
-        <v>43011.724328703705</v>
+        <v>42804.635937500003</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>313</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="F29" t="s">
         <v>27</v>
@@ -3681,10 +3651,10 @@
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="J29" t="s">
         <v>31</v>
@@ -3693,13 +3663,13 @@
         <v>32</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>152</v>
+        <v>282</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>153</v>
+        <v>283</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>36</v>
@@ -3730,19 +3700,19 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>251</v>
       </c>
       <c r="B30" s="3">
-        <v>43017.374421296299</v>
+        <v>42804.639594907407</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="F30" t="s">
         <v>27</v>
@@ -3751,10 +3721,10 @@
         <v>28</v>
       </c>
       <c r="H30" t="s">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="I30" t="s">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="J30" t="s">
         <v>31</v>
@@ -3763,13 +3733,13 @@
         <v>32</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>36</v>
@@ -3800,19 +3770,19 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="B31" s="3">
-        <v>42767.364479166667</v>
+        <v>42804.644224537034</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>253</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c r="F31" t="s">
         <v>27</v>
@@ -3821,25 +3791,25 @@
         <v>28</v>
       </c>
       <c r="H31" t="s">
-        <v>161</v>
+        <v>254</v>
       </c>
       <c r="I31" t="s">
-        <v>162</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>36</v>
@@ -3870,19 +3840,19 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="B32" s="3">
-        <v>42767.373553240737</v>
+        <v>42811.632581018515</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="F32" t="s">
         <v>27</v>
@@ -3891,25 +3861,25 @@
         <v>28</v>
       </c>
       <c r="H32" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="I32" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J32" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>36</v>
@@ -3940,19 +3910,19 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>314</v>
       </c>
       <c r="B33" s="3">
-        <v>42767.37636574074</v>
+        <v>42821.67396990741</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>315</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="F33" t="s">
         <v>27</v>
@@ -3961,25 +3931,25 @@
         <v>28</v>
       </c>
       <c r="H33" t="s">
-        <v>161</v>
+        <v>292</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>293</v>
       </c>
       <c r="J33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>164</v>
+        <v>281</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>36</v>
@@ -4010,19 +3980,19 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c r="B34" s="3">
-        <v>42769.500104166669</v>
+        <v>42829.590474537035</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c r="F34" t="s">
         <v>27</v>
@@ -4031,10 +4001,10 @@
         <v>28</v>
       </c>
       <c r="H34" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="I34" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="J34" t="s">
         <v>31</v>
@@ -4043,13 +4013,13 @@
         <v>32</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>36</v>
@@ -4080,19 +4050,19 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>316</v>
       </c>
       <c r="B35" s="3">
-        <v>43003.621863425928</v>
+        <v>42829.593344907407</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>317</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="F35" t="s">
         <v>27</v>
@@ -4101,10 +4071,10 @@
         <v>28</v>
       </c>
       <c r="H35" t="s">
-        <v>177</v>
+        <v>318</v>
       </c>
       <c r="I35" t="s">
-        <v>178</v>
+        <v>319</v>
       </c>
       <c r="J35" t="s">
         <v>31</v>
@@ -4113,13 +4083,13 @@
         <v>32</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>164</v>
+        <v>281</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>36</v>
@@ -4150,19 +4120,19 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>179</v>
+        <v>320</v>
       </c>
       <c r="B36" s="3">
-        <v>43005.692916666667</v>
+        <v>42850.650995370372</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>321</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="F36" t="s">
         <v>27</v>
@@ -4171,10 +4141,10 @@
         <v>28</v>
       </c>
       <c r="H36" t="s">
-        <v>181</v>
+        <v>322</v>
       </c>
       <c r="I36" t="s">
-        <v>182</v>
+        <v>323</v>
       </c>
       <c r="J36" t="s">
         <v>31</v>
@@ -4183,13 +4153,13 @@
         <v>32</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>164</v>
+        <v>281</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>36</v>
@@ -4220,19 +4190,19 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>324</v>
       </c>
       <c r="B37" s="3">
-        <v>43080.429189814815</v>
+        <v>42850.675682870373</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>325</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="F37" t="s">
         <v>27</v>
@@ -4241,10 +4211,10 @@
         <v>28</v>
       </c>
       <c r="H37" t="s">
-        <v>185</v>
+        <v>326</v>
       </c>
       <c r="I37" t="s">
-        <v>186</v>
+        <v>327</v>
       </c>
       <c r="J37" t="s">
         <v>31</v>
@@ -4253,13 +4223,13 @@
         <v>32</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>164</v>
+        <v>281</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>36</v>
@@ -4290,19 +4260,19 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>187</v>
+        <v>328</v>
       </c>
       <c r="B38" s="3">
-        <v>43017.712939814817</v>
+        <v>42850.676400462966</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>329</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="F38" t="s">
         <v>27</v>
@@ -4311,10 +4281,10 @@
         <v>28</v>
       </c>
       <c r="H38" t="s">
-        <v>190</v>
+        <v>326</v>
       </c>
       <c r="I38" t="s">
-        <v>191</v>
+        <v>327</v>
       </c>
       <c r="J38" t="s">
         <v>31</v>
@@ -4323,13 +4293,13 @@
         <v>32</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>192</v>
+        <v>281</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>36</v>
@@ -4360,19 +4330,19 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>195</v>
+        <v>407</v>
       </c>
       <c r="B39" s="3">
-        <v>43027.470925925925</v>
+        <v>42850.685868055552</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>408</v>
       </c>
       <c r="D39" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>197</v>
+        <v>403</v>
       </c>
       <c r="F39" t="s">
         <v>27</v>
@@ -4381,10 +4351,10 @@
         <v>28</v>
       </c>
       <c r="H39" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="I39" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="J39" t="s">
         <v>31</v>
@@ -4393,13 +4363,13 @@
         <v>32</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>200</v>
+        <v>404</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>201</v>
+        <v>405</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>202</v>
+        <v>406</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>36</v>
@@ -4430,19 +4400,19 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="B40" s="3">
-        <v>42759.698506944442</v>
+        <v>42850.692175925928</v>
       </c>
       <c r="C40" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="D40" t="s">
         <v>205</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F40" t="s">
         <v>27</v>
@@ -4451,10 +4421,10 @@
         <v>28</v>
       </c>
       <c r="H40" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="I40" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="J40" t="s">
         <v>31</v>
@@ -4463,13 +4433,13 @@
         <v>32</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>36</v>
@@ -4500,19 +4470,19 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>330</v>
       </c>
       <c r="B41" s="3">
-        <v>42760.41474537037</v>
+        <v>42853.633946759262</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>331</v>
       </c>
       <c r="D41" t="s">
         <v>205</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>206</v>
+        <v>280</v>
       </c>
       <c r="F41" t="s">
         <v>27</v>
@@ -4521,10 +4491,10 @@
         <v>28</v>
       </c>
       <c r="H41" t="s">
-        <v>109</v>
+        <v>322</v>
       </c>
       <c r="I41" t="s">
-        <v>110</v>
+        <v>323</v>
       </c>
       <c r="J41" t="s">
         <v>31</v>
@@ -4533,13 +4503,13 @@
         <v>32</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>211</v>
+        <v>283</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>36</v>
@@ -4570,19 +4540,19 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
       <c r="B42" s="3">
-        <v>42811.632581018515</v>
+        <v>42860.463148148148</v>
       </c>
       <c r="C42" t="s">
-        <v>215</v>
+        <v>333</v>
       </c>
       <c r="D42" t="s">
         <v>205</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>206</v>
+        <v>280</v>
       </c>
       <c r="F42" t="s">
         <v>27</v>
@@ -4591,10 +4561,10 @@
         <v>28</v>
       </c>
       <c r="H42" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="I42" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="J42" t="s">
         <v>31</v>
@@ -4603,13 +4573,13 @@
         <v>32</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>211</v>
+        <v>283</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>36</v>
@@ -4640,19 +4610,19 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="B43" s="3">
-        <v>42956.625416666669</v>
+        <v>42865.386956018519</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="D43" t="s">
         <v>205</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F43" t="s">
         <v>27</v>
@@ -4661,10 +4631,10 @@
         <v>28</v>
       </c>
       <c r="H43" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="I43" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="J43" t="s">
         <v>31</v>
@@ -4673,13 +4643,13 @@
         <v>32</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>36</v>
@@ -4710,19 +4680,19 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>220</v>
+        <v>385</v>
       </c>
       <c r="B44" s="3">
-        <v>42956.649317129632</v>
+        <v>42880.371319444443</v>
       </c>
       <c r="C44" t="s">
-        <v>221</v>
+        <v>386</v>
       </c>
       <c r="D44" t="s">
         <v>205</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>206</v>
+        <v>387</v>
       </c>
       <c r="F44" t="s">
         <v>27</v>
@@ -4731,10 +4701,10 @@
         <v>28</v>
       </c>
       <c r="H44" t="s">
-        <v>222</v>
+        <v>388</v>
       </c>
       <c r="I44" t="s">
-        <v>223</v>
+        <v>389</v>
       </c>
       <c r="J44" t="s">
         <v>31</v>
@@ -4743,13 +4713,13 @@
         <v>32</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>209</v>
+        <v>390</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>210</v>
+        <v>391</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>211</v>
+        <v>392</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>36</v>
@@ -4780,19 +4750,19 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="B45" s="3">
-        <v>43042.497118055559</v>
+        <v>42955.610995370371</v>
       </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="D45" t="s">
         <v>205</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F45" t="s">
         <v>27</v>
@@ -4801,10 +4771,10 @@
         <v>28</v>
       </c>
       <c r="H45" t="s">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s">
-        <v>227</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s">
         <v>31</v>
@@ -4813,13 +4783,13 @@
         <v>32</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>36</v>
@@ -4850,19 +4820,19 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="B46" s="3">
-        <v>43056.374525462961</v>
+        <v>42955.611342592594</v>
       </c>
       <c r="C46" t="s">
-        <v>229</v>
+        <v>335</v>
       </c>
       <c r="D46" t="s">
         <v>205</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>206</v>
+        <v>280</v>
       </c>
       <c r="F46" t="s">
         <v>27</v>
@@ -4871,10 +4841,10 @@
         <v>28</v>
       </c>
       <c r="H46" t="s">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="I46" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="J46" t="s">
         <v>31</v>
@@ -4883,13 +4853,13 @@
         <v>32</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>211</v>
+        <v>283</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>36</v>
@@ -4920,19 +4890,19 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B47" s="3">
-        <v>42759.652094907404</v>
+        <v>42956.625416666669</v>
       </c>
       <c r="C47" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D47" t="s">
         <v>205</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="F47" t="s">
         <v>27</v>
@@ -4941,10 +4911,10 @@
         <v>28</v>
       </c>
       <c r="H47" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="I47" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="J47" t="s">
         <v>31</v>
@@ -4953,13 +4923,13 @@
         <v>32</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>36</v>
@@ -4990,19 +4960,19 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="B48" s="3">
-        <v>42769.652222222219</v>
+        <v>42956.649317129632</v>
       </c>
       <c r="C48" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="D48" t="s">
         <v>205</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="F48" t="s">
         <v>27</v>
@@ -5011,10 +4981,10 @@
         <v>28</v>
       </c>
       <c r="H48" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="I48" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="J48" t="s">
         <v>31</v>
@@ -5023,13 +4993,13 @@
         <v>32</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>36</v>
@@ -5060,19 +5030,19 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>244</v>
+        <v>336</v>
       </c>
       <c r="B49" s="3">
-        <v>42769.658217592594</v>
+        <v>42956.655173611114</v>
       </c>
       <c r="C49" t="s">
-        <v>241</v>
+        <v>337</v>
       </c>
       <c r="D49" t="s">
         <v>205</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="F49" t="s">
         <v>27</v>
@@ -5081,10 +5051,10 @@
         <v>28</v>
       </c>
       <c r="H49" t="s">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="I49" t="s">
-        <v>246</v>
+        <v>90</v>
       </c>
       <c r="J49" t="s">
         <v>31</v>
@@ -5093,13 +5063,13 @@
         <v>32</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>36</v>
@@ -5130,13 +5100,13 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="B50" s="3">
-        <v>42801.490439814814</v>
+        <v>42956.657800925925</v>
       </c>
       <c r="C50" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="D50" t="s">
         <v>205</v>
@@ -5151,10 +5121,10 @@
         <v>28</v>
       </c>
       <c r="H50" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="I50" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J50" t="s">
         <v>31</v>
@@ -5200,19 +5170,19 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>251</v>
+        <v>409</v>
       </c>
       <c r="B51" s="3">
-        <v>42804.639594907407</v>
+        <v>42956.671134259261</v>
       </c>
       <c r="C51" t="s">
-        <v>248</v>
+        <v>410</v>
       </c>
       <c r="D51" t="s">
         <v>205</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>234</v>
+        <v>403</v>
       </c>
       <c r="F51" t="s">
         <v>27</v>
@@ -5221,10 +5191,10 @@
         <v>28</v>
       </c>
       <c r="H51" t="s">
-        <v>249</v>
+        <v>340</v>
       </c>
       <c r="I51" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="J51" t="s">
         <v>31</v>
@@ -5233,13 +5203,13 @@
         <v>32</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>237</v>
+        <v>404</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>238</v>
+        <v>405</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>239</v>
+        <v>406</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>36</v>
@@ -5270,19 +5240,19 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="B52" s="3">
-        <v>42804.644224537034</v>
+        <v>42961.448923611111</v>
       </c>
       <c r="C52" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="D52" t="s">
         <v>205</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="F52" t="s">
         <v>27</v>
@@ -5291,10 +5261,10 @@
         <v>28</v>
       </c>
       <c r="H52" t="s">
-        <v>254</v>
+        <v>340</v>
       </c>
       <c r="I52" t="s">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="J52" t="s">
         <v>31</v>
@@ -5303,13 +5273,13 @@
         <v>32</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>36</v>
@@ -5340,19 +5310,19 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>256</v>
+        <v>342</v>
       </c>
       <c r="B53" s="3">
-        <v>42829.590474537035</v>
+        <v>42962.631874999999</v>
       </c>
       <c r="C53" t="s">
-        <v>257</v>
+        <v>343</v>
       </c>
       <c r="D53" t="s">
         <v>205</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="F53" t="s">
         <v>27</v>
@@ -5361,10 +5331,10 @@
         <v>28</v>
       </c>
       <c r="H53" t="s">
-        <v>249</v>
+        <v>306</v>
       </c>
       <c r="I53" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="J53" t="s">
         <v>31</v>
@@ -5373,13 +5343,13 @@
         <v>32</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>36</v>
@@ -5410,19 +5380,19 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>258</v>
+        <v>344</v>
       </c>
       <c r="B54" s="3">
-        <v>42850.692175925928</v>
+        <v>42962.633310185185</v>
       </c>
       <c r="C54" t="s">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="D54" t="s">
         <v>205</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="F54" t="s">
         <v>27</v>
@@ -5431,10 +5401,10 @@
         <v>28</v>
       </c>
       <c r="H54" t="s">
-        <v>260</v>
+        <v>346</v>
       </c>
       <c r="I54" t="s">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="J54" t="s">
         <v>31</v>
@@ -5443,13 +5413,13 @@
         <v>32</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>36</v>
@@ -5480,13 +5450,13 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B55" s="3">
-        <v>42865.386956018519</v>
+        <v>42962.637743055559</v>
       </c>
       <c r="C55" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D55" t="s">
         <v>205</v>
@@ -5501,10 +5471,10 @@
         <v>28</v>
       </c>
       <c r="H55" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="I55" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="J55" t="s">
         <v>31</v>
@@ -5550,19 +5520,19 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>266</v>
+        <v>348</v>
       </c>
       <c r="B56" s="3">
-        <v>42955.610995370371</v>
+        <v>42962.640196759261</v>
       </c>
       <c r="C56" t="s">
-        <v>267</v>
+        <v>349</v>
       </c>
       <c r="D56" t="s">
         <v>205</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="F56" t="s">
         <v>27</v>
@@ -5571,10 +5541,10 @@
         <v>28</v>
       </c>
       <c r="H56" t="s">
-        <v>89</v>
+        <v>350</v>
       </c>
       <c r="I56" t="s">
-        <v>90</v>
+        <v>351</v>
       </c>
       <c r="J56" t="s">
         <v>31</v>
@@ -5583,13 +5553,13 @@
         <v>32</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>36</v>
@@ -5620,19 +5590,19 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="B57" s="3">
-        <v>42956.657800925925</v>
+        <v>42965.522604166668</v>
       </c>
       <c r="C57" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="D57" t="s">
         <v>205</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="F57" t="s">
         <v>27</v>
@@ -5641,10 +5611,10 @@
         <v>28</v>
       </c>
       <c r="H57" t="s">
-        <v>254</v>
+        <v>340</v>
       </c>
       <c r="I57" t="s">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="J57" t="s">
         <v>31</v>
@@ -5653,13 +5623,13 @@
         <v>32</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>36</v>
@@ -5690,19 +5660,19 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>270</v>
+        <v>411</v>
       </c>
       <c r="B58" s="3">
-        <v>42962.637743055559</v>
+        <v>42975.644756944443</v>
       </c>
       <c r="C58" t="s">
-        <v>271</v>
+        <v>412</v>
       </c>
       <c r="D58" t="s">
         <v>205</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>234</v>
+        <v>403</v>
       </c>
       <c r="F58" t="s">
         <v>27</v>
@@ -5711,10 +5681,10 @@
         <v>28</v>
       </c>
       <c r="H58" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="I58" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="J58" t="s">
         <v>31</v>
@@ -5723,13 +5693,13 @@
         <v>32</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>237</v>
+        <v>404</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>238</v>
+        <v>405</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>239</v>
+        <v>406</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>36</v>
@@ -5760,19 +5730,19 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>274</v>
+        <v>413</v>
       </c>
       <c r="B59" s="3">
-        <v>43025.449062500003</v>
+        <v>42976.434074074074</v>
       </c>
       <c r="C59" t="s">
-        <v>275</v>
+        <v>414</v>
       </c>
       <c r="D59" t="s">
         <v>205</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>234</v>
+        <v>403</v>
       </c>
       <c r="F59" t="s">
         <v>27</v>
@@ -5781,10 +5751,10 @@
         <v>28</v>
       </c>
       <c r="H59" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="I59" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="J59" t="s">
         <v>31</v>
@@ -5793,13 +5763,13 @@
         <v>32</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>237</v>
+        <v>404</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>238</v>
+        <v>405</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>239</v>
+        <v>406</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>36</v>
@@ -5830,13 +5800,13 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>278</v>
+        <v>354</v>
       </c>
       <c r="B60" s="3">
-        <v>42755.615127314813</v>
+        <v>42992.465300925927</v>
       </c>
       <c r="C60" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="D60" t="s">
         <v>205</v>
@@ -5851,10 +5821,10 @@
         <v>28</v>
       </c>
       <c r="H60" t="s">
-        <v>62</v>
+        <v>356</v>
       </c>
       <c r="I60" t="s">
-        <v>63</v>
+        <v>357</v>
       </c>
       <c r="J60" t="s">
         <v>31</v>
@@ -5900,13 +5870,13 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>284</v>
+        <v>358</v>
       </c>
       <c r="B61" s="3">
-        <v>42758.401539351849</v>
+        <v>42999.53434027778</v>
       </c>
       <c r="C61" t="s">
-        <v>285</v>
+        <v>359</v>
       </c>
       <c r="D61" t="s">
         <v>205</v>
@@ -5921,10 +5891,10 @@
         <v>28</v>
       </c>
       <c r="H61" t="s">
-        <v>286</v>
+        <v>360</v>
       </c>
       <c r="I61" t="s">
-        <v>287</v>
+        <v>361</v>
       </c>
       <c r="J61" t="s">
         <v>31</v>
@@ -5970,13 +5940,13 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="B62" s="3">
-        <v>42759.653506944444</v>
+        <v>42999.534675925926</v>
       </c>
       <c r="C62" t="s">
-        <v>289</v>
+        <v>363</v>
       </c>
       <c r="D62" t="s">
         <v>205</v>
@@ -5991,10 +5961,10 @@
         <v>28</v>
       </c>
       <c r="H62" t="s">
-        <v>235</v>
+        <v>360</v>
       </c>
       <c r="I62" t="s">
-        <v>236</v>
+        <v>361</v>
       </c>
       <c r="J62" t="s">
         <v>31</v>
@@ -6040,19 +6010,19 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="B63" s="3">
-        <v>42759.658842592595</v>
+        <v>43003.621863425928</v>
       </c>
       <c r="C63" t="s">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>280</v>
+        <v>61</v>
       </c>
       <c r="F63" t="s">
         <v>27</v>
@@ -6061,25 +6031,25 @@
         <v>28</v>
       </c>
       <c r="H63" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="I63" t="s">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="J63" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>281</v>
+        <v>164</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>283</v>
+        <v>166</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>36</v>
@@ -6110,19 +6080,19 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="B64" s="3">
-        <v>42769.495555555557</v>
+        <v>43005.692916666667</v>
       </c>
       <c r="C64" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="D64" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>280</v>
+        <v>61</v>
       </c>
       <c r="F64" t="s">
         <v>27</v>
@@ -6131,10 +6101,10 @@
         <v>28</v>
       </c>
       <c r="H64" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="I64" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="J64" t="s">
         <v>31</v>
@@ -6143,13 +6113,13 @@
         <v>32</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>281</v>
+        <v>164</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>283</v>
+        <v>166</v>
       </c>
       <c r="O64" s="1" t="s">
         <v>36</v>
@@ -6180,13 +6150,13 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>296</v>
+        <v>364</v>
       </c>
       <c r="B65" s="3">
-        <v>42769.61859953704</v>
+        <v>43006.45076388889</v>
       </c>
       <c r="C65" t="s">
-        <v>297</v>
+        <v>365</v>
       </c>
       <c r="D65" t="s">
         <v>205</v>
@@ -6201,10 +6171,10 @@
         <v>28</v>
       </c>
       <c r="H65" t="s">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="I65" t="s">
-        <v>299</v>
+        <v>361</v>
       </c>
       <c r="J65" t="s">
         <v>31</v>
@@ -6250,31 +6220,31 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>300</v>
+        <v>129</v>
       </c>
       <c r="B66" s="3">
-        <v>42769.653749999998</v>
+        <v>43011.685300925928</v>
       </c>
       <c r="C66" t="s">
-        <v>301</v>
+        <v>130</v>
       </c>
       <c r="D66" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>280</v>
+        <v>131</v>
       </c>
       <c r="F66" t="s">
         <v>27</v>
       </c>
       <c r="G66" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H66" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="I66" t="s">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="J66" t="s">
         <v>31</v>
@@ -6283,13 +6253,13 @@
         <v>32</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>281</v>
+        <v>132</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>282</v>
+        <v>133</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>283</v>
+        <v>134</v>
       </c>
       <c r="O66" s="1" t="s">
         <v>36</v>
@@ -6320,31 +6290,31 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>302</v>
+        <v>135</v>
       </c>
       <c r="B67" s="3">
-        <v>42769.659768518519</v>
+        <v>43011.686122685183</v>
       </c>
       <c r="C67" t="s">
-        <v>303</v>
+        <v>136</v>
       </c>
       <c r="D67" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>280</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
         <v>27</v>
       </c>
       <c r="G67" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H67" t="s">
-        <v>245</v>
+        <v>109</v>
       </c>
       <c r="I67" t="s">
-        <v>246</v>
+        <v>110</v>
       </c>
       <c r="J67" t="s">
         <v>31</v>
@@ -6353,13 +6323,13 @@
         <v>32</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>281</v>
+        <v>132</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>282</v>
+        <v>137</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>283</v>
+        <v>138</v>
       </c>
       <c r="O67" s="1" t="s">
         <v>36</v>
@@ -6390,31 +6360,31 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>304</v>
+        <v>106</v>
       </c>
       <c r="B68" s="3">
-        <v>42769.663587962961</v>
+        <v>43011.701851851853</v>
       </c>
       <c r="C68" t="s">
-        <v>305</v>
+        <v>107</v>
       </c>
       <c r="D68" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>280</v>
+        <v>108</v>
       </c>
       <c r="F68" t="s">
         <v>27</v>
       </c>
       <c r="G68" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H68" t="s">
-        <v>306</v>
+        <v>109</v>
       </c>
       <c r="I68" t="s">
-        <v>307</v>
+        <v>110</v>
       </c>
       <c r="J68" t="s">
         <v>31</v>
@@ -6423,13 +6393,13 @@
         <v>32</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>281</v>
+        <v>111</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>282</v>
+        <v>112</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>283</v>
+        <v>113</v>
       </c>
       <c r="O68" s="1" t="s">
         <v>36</v>
@@ -6450,41 +6420,45 @@
         <v>0</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="V68" s="1">
+        <v>292</v>
+      </c>
+      <c r="W68" s="1">
+        <v>15</v>
+      </c>
       <c r="X68" s="2">
-        <v>44651</v>
+        <v>43124.494537037041</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>308</v>
+        <v>115</v>
       </c>
       <c r="B69" s="3">
-        <v>42776.508379629631</v>
+        <v>43011.708993055552</v>
       </c>
       <c r="C69" t="s">
-        <v>309</v>
+        <v>116</v>
       </c>
       <c r="D69" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>280</v>
+        <v>108</v>
       </c>
       <c r="F69" t="s">
         <v>27</v>
       </c>
       <c r="G69" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H69" t="s">
-        <v>310</v>
+        <v>109</v>
       </c>
       <c r="I69" t="s">
-        <v>311</v>
+        <v>110</v>
       </c>
       <c r="J69" t="s">
         <v>31</v>
@@ -6493,13 +6467,13 @@
         <v>32</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>281</v>
+        <v>111</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>282</v>
+        <v>117</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>283</v>
+        <v>118</v>
       </c>
       <c r="O69" s="1" t="s">
         <v>36</v>
@@ -6520,29 +6494,33 @@
         <v>0</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="V69" s="1">
+        <v>200</v>
+      </c>
+      <c r="W69" s="1">
+        <v>25</v>
+      </c>
       <c r="X69" s="2">
-        <v>44651</v>
+        <v>43195.442245370374</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>312</v>
+        <v>148</v>
       </c>
       <c r="B70" s="3">
-        <v>42804.635937500003</v>
+        <v>43011.724328703705</v>
       </c>
       <c r="C70" t="s">
-        <v>313</v>
+        <v>149</v>
       </c>
       <c r="D70" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="F70" t="s">
         <v>27</v>
@@ -6551,10 +6529,10 @@
         <v>28</v>
       </c>
       <c r="H70" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="I70" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="J70" t="s">
         <v>31</v>
@@ -6563,13 +6541,13 @@
         <v>32</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>283</v>
+        <v>153</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>36</v>
@@ -6600,19 +6578,19 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>314</v>
+        <v>415</v>
       </c>
       <c r="B71" s="3">
-        <v>42821.67396990741</v>
+        <v>43012.651770833334</v>
       </c>
       <c r="C71" t="s">
-        <v>315</v>
+        <v>416</v>
       </c>
       <c r="D71" t="s">
         <v>205</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>280</v>
+        <v>403</v>
       </c>
       <c r="F71" t="s">
         <v>27</v>
@@ -6621,25 +6599,25 @@
         <v>28</v>
       </c>
       <c r="H71" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="I71" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="J71" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>281</v>
+        <v>404</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>282</v>
+        <v>405</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>283</v>
+        <v>406</v>
       </c>
       <c r="O71" s="1" t="s">
         <v>36</v>
@@ -6670,19 +6648,19 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>316</v>
+        <v>417</v>
       </c>
       <c r="B72" s="3">
-        <v>42829.593344907407</v>
+        <v>43012.652106481481</v>
       </c>
       <c r="C72" t="s">
-        <v>317</v>
+        <v>418</v>
       </c>
       <c r="D72" t="s">
         <v>205</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>280</v>
+        <v>403</v>
       </c>
       <c r="F72" t="s">
         <v>27</v>
@@ -6691,10 +6669,10 @@
         <v>28</v>
       </c>
       <c r="H72" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="I72" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="J72" t="s">
         <v>31</v>
@@ -6703,13 +6681,13 @@
         <v>32</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>281</v>
+        <v>404</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>282</v>
+        <v>405</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>283</v>
+        <v>406</v>
       </c>
       <c r="O72" s="1" t="s">
         <v>36</v>
@@ -6740,19 +6718,19 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>320</v>
+        <v>24</v>
       </c>
       <c r="B73" s="3">
-        <v>42850.650995370372</v>
+        <v>43014.510879629626</v>
       </c>
       <c r="C73" t="s">
-        <v>321</v>
+        <v>25</v>
       </c>
       <c r="D73" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>280</v>
+        <v>26</v>
       </c>
       <c r="F73" t="s">
         <v>27</v>
@@ -6761,10 +6739,10 @@
         <v>28</v>
       </c>
       <c r="H73" t="s">
-        <v>322</v>
+        <v>29</v>
       </c>
       <c r="I73" t="s">
-        <v>323</v>
+        <v>30</v>
       </c>
       <c r="J73" t="s">
         <v>31</v>
@@ -6773,13 +6751,13 @@
         <v>32</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>282</v>
+        <v>34</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="O73" s="1" t="s">
         <v>36</v>
@@ -6810,19 +6788,19 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>324</v>
+        <v>38</v>
       </c>
       <c r="B74" s="3">
-        <v>42850.675682870373</v>
+        <v>43014.511400462965</v>
       </c>
       <c r="C74" t="s">
-        <v>325</v>
+        <v>39</v>
       </c>
       <c r="D74" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>280</v>
+        <v>26</v>
       </c>
       <c r="F74" t="s">
         <v>27</v>
@@ -6831,10 +6809,10 @@
         <v>28</v>
       </c>
       <c r="H74" t="s">
-        <v>326</v>
+        <v>29</v>
       </c>
       <c r="I74" t="s">
-        <v>327</v>
+        <v>30</v>
       </c>
       <c r="J74" t="s">
         <v>31</v>
@@ -6843,13 +6821,13 @@
         <v>32</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>282</v>
+        <v>34</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="O74" s="1" t="s">
         <v>36</v>
@@ -6880,19 +6858,19 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="B75" s="3">
-        <v>42850.676400462966</v>
+        <v>43014.511747685188</v>
       </c>
       <c r="C75" t="s">
-        <v>329</v>
+        <v>41</v>
       </c>
       <c r="D75" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>280</v>
+        <v>26</v>
       </c>
       <c r="F75" t="s">
         <v>27</v>
@@ -6901,10 +6879,10 @@
         <v>28</v>
       </c>
       <c r="H75" t="s">
-        <v>326</v>
+        <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>327</v>
+        <v>30</v>
       </c>
       <c r="J75" t="s">
         <v>31</v>
@@ -6913,13 +6891,13 @@
         <v>32</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>282</v>
+        <v>34</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="O75" s="1" t="s">
         <v>36</v>
@@ -6950,19 +6928,19 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="B76" s="3">
-        <v>42853.633946759262</v>
+        <v>43014.512372685182</v>
       </c>
       <c r="C76" t="s">
-        <v>331</v>
+        <v>43</v>
       </c>
       <c r="D76" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>280</v>
+        <v>26</v>
       </c>
       <c r="F76" t="s">
         <v>27</v>
@@ -6971,10 +6949,10 @@
         <v>28</v>
       </c>
       <c r="H76" t="s">
-        <v>322</v>
+        <v>29</v>
       </c>
       <c r="I76" t="s">
-        <v>323</v>
+        <v>30</v>
       </c>
       <c r="J76" t="s">
         <v>31</v>
@@ -6983,13 +6961,13 @@
         <v>32</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>282</v>
+        <v>34</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="O76" s="1" t="s">
         <v>36</v>
@@ -7020,31 +6998,31 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="B77" s="3">
-        <v>42860.463148148148</v>
+        <v>43014.512835648151</v>
       </c>
       <c r="C77" t="s">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="D77" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>280</v>
+        <v>26</v>
       </c>
       <c r="F77" t="s">
         <v>27</v>
       </c>
       <c r="G77" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c r="I77" t="s">
-        <v>261</v>
+        <v>30</v>
       </c>
       <c r="J77" t="s">
         <v>31</v>
@@ -7053,13 +7031,13 @@
         <v>32</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>282</v>
+        <v>34</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="O77" s="1" t="s">
         <v>36</v>
@@ -7090,19 +7068,19 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>334</v>
+        <v>47</v>
       </c>
       <c r="B78" s="3">
-        <v>42955.611342592594</v>
+        <v>43014.513194444444</v>
       </c>
       <c r="C78" t="s">
-        <v>335</v>
+        <v>48</v>
       </c>
       <c r="D78" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>280</v>
+        <v>26</v>
       </c>
       <c r="F78" t="s">
         <v>27</v>
@@ -7111,10 +7089,10 @@
         <v>28</v>
       </c>
       <c r="H78" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I78" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J78" t="s">
         <v>31</v>
@@ -7123,13 +7101,13 @@
         <v>32</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>282</v>
+        <v>34</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="O78" s="1" t="s">
         <v>36</v>
@@ -7160,31 +7138,31 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="B79" s="3">
-        <v>42956.655173611114</v>
+        <v>43014.513761574075</v>
       </c>
       <c r="C79" t="s">
-        <v>337</v>
+        <v>50</v>
       </c>
       <c r="D79" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>280</v>
+        <v>26</v>
       </c>
       <c r="F79" t="s">
         <v>27</v>
       </c>
       <c r="G79" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H79" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I79" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J79" t="s">
         <v>31</v>
@@ -7193,13 +7171,13 @@
         <v>32</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>282</v>
+        <v>34</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="O79" s="1" t="s">
         <v>36</v>
@@ -7230,31 +7208,31 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>338</v>
+        <v>52</v>
       </c>
       <c r="B80" s="3">
-        <v>42961.448923611111</v>
+        <v>43014.514490740738</v>
       </c>
       <c r="C80" t="s">
-        <v>339</v>
+        <v>53</v>
       </c>
       <c r="D80" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>280</v>
+        <v>26</v>
       </c>
       <c r="F80" t="s">
         <v>27</v>
       </c>
       <c r="G80" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>340</v>
+        <v>29</v>
       </c>
       <c r="I80" t="s">
-        <v>341</v>
+        <v>30</v>
       </c>
       <c r="J80" t="s">
         <v>31</v>
@@ -7263,13 +7241,13 @@
         <v>32</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>282</v>
+        <v>34</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="O80" s="1" t="s">
         <v>36</v>
@@ -7300,31 +7278,31 @@
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>342</v>
+        <v>54</v>
       </c>
       <c r="B81" s="3">
-        <v>42962.631874999999</v>
+        <v>43014.514745370368</v>
       </c>
       <c r="C81" t="s">
-        <v>343</v>
+        <v>55</v>
       </c>
       <c r="D81" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>280</v>
+        <v>26</v>
       </c>
       <c r="F81" t="s">
         <v>27</v>
       </c>
       <c r="G81" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="I81" t="s">
-        <v>307</v>
+        <v>30</v>
       </c>
       <c r="J81" t="s">
         <v>31</v>
@@ -7333,13 +7311,13 @@
         <v>32</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>282</v>
+        <v>34</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="O81" s="1" t="s">
         <v>36</v>
@@ -7370,31 +7348,31 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>344</v>
+        <v>56</v>
       </c>
       <c r="B82" s="3">
-        <v>42962.633310185185</v>
+        <v>43014.515081018515</v>
       </c>
       <c r="C82" t="s">
-        <v>345</v>
+        <v>57</v>
       </c>
       <c r="D82" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>280</v>
+        <v>26</v>
       </c>
       <c r="F82" t="s">
         <v>27</v>
       </c>
       <c r="G82" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>346</v>
+        <v>29</v>
       </c>
       <c r="I82" t="s">
-        <v>347</v>
+        <v>30</v>
       </c>
       <c r="J82" t="s">
         <v>31</v>
@@ -7403,13 +7381,13 @@
         <v>32</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>282</v>
+        <v>34</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="O82" s="1" t="s">
         <v>36</v>
@@ -7440,19 +7418,19 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>348</v>
+        <v>154</v>
       </c>
       <c r="B83" s="3">
-        <v>42962.640196759261</v>
+        <v>43017.374421296299</v>
       </c>
       <c r="C83" t="s">
-        <v>349</v>
+        <v>155</v>
       </c>
       <c r="D83" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="F83" t="s">
         <v>27</v>
@@ -7461,10 +7439,10 @@
         <v>28</v>
       </c>
       <c r="H83" t="s">
-        <v>350</v>
+        <v>89</v>
       </c>
       <c r="I83" t="s">
-        <v>351</v>
+        <v>90</v>
       </c>
       <c r="J83" t="s">
         <v>31</v>
@@ -7473,13 +7451,13 @@
         <v>32</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>282</v>
+        <v>156</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>283</v>
+        <v>157</v>
       </c>
       <c r="O83" s="1" t="s">
         <v>36</v>
@@ -7510,13 +7488,13 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B84" s="3">
-        <v>42965.522604166668</v>
+        <v>43017.503888888888</v>
       </c>
       <c r="C84" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="D84" t="s">
         <v>205</v>
@@ -7531,10 +7509,10 @@
         <v>28</v>
       </c>
       <c r="H84" t="s">
-        <v>340</v>
+        <v>89</v>
       </c>
       <c r="I84" t="s">
-        <v>341</v>
+        <v>90</v>
       </c>
       <c r="J84" t="s">
         <v>31</v>
@@ -7580,13 +7558,13 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B85" s="3">
-        <v>42992.465300925927</v>
+        <v>43017.546180555553</v>
       </c>
       <c r="C85" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="D85" t="s">
         <v>205</v>
@@ -7601,10 +7579,10 @@
         <v>28</v>
       </c>
       <c r="H85" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="I85" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="J85" t="s">
         <v>31</v>
@@ -7650,19 +7628,19 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="B86" s="3">
-        <v>42999.53434027778</v>
+        <v>43017.551863425928</v>
       </c>
       <c r="C86" t="s">
-        <v>359</v>
+        <v>88</v>
       </c>
       <c r="D86" t="s">
         <v>205</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>280</v>
+        <v>387</v>
       </c>
       <c r="F86" t="s">
         <v>27</v>
@@ -7671,10 +7649,10 @@
         <v>28</v>
       </c>
       <c r="H86" t="s">
-        <v>360</v>
+        <v>173</v>
       </c>
       <c r="I86" t="s">
-        <v>361</v>
+        <v>174</v>
       </c>
       <c r="J86" t="s">
         <v>31</v>
@@ -7683,13 +7661,13 @@
         <v>32</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>281</v>
+        <v>390</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>282</v>
+        <v>391</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>283</v>
+        <v>392</v>
       </c>
       <c r="O86" s="1" t="s">
         <v>36</v>
@@ -7720,13 +7698,13 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B87" s="3">
-        <v>42999.534675925926</v>
+        <v>43017.554791666669</v>
       </c>
       <c r="C87" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D87" t="s">
         <v>205</v>
@@ -7741,10 +7719,10 @@
         <v>28</v>
       </c>
       <c r="H87" t="s">
-        <v>360</v>
+        <v>173</v>
       </c>
       <c r="I87" t="s">
-        <v>361</v>
+        <v>174</v>
       </c>
       <c r="J87" t="s">
         <v>31</v>
@@ -7790,19 +7768,19 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="B88" s="3">
-        <v>43006.45076388889</v>
+        <v>43017.556307870371</v>
       </c>
       <c r="C88" t="s">
-        <v>365</v>
+        <v>88</v>
       </c>
       <c r="D88" t="s">
         <v>205</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>280</v>
+        <v>387</v>
       </c>
       <c r="F88" t="s">
         <v>27</v>
@@ -7811,10 +7789,10 @@
         <v>28</v>
       </c>
       <c r="H88" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="I88" t="s">
-        <v>361</v>
+        <v>299</v>
       </c>
       <c r="J88" t="s">
         <v>31</v>
@@ -7823,13 +7801,13 @@
         <v>32</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>281</v>
+        <v>390</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>282</v>
+        <v>391</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>283</v>
+        <v>392</v>
       </c>
       <c r="O88" s="1" t="s">
         <v>36</v>
@@ -7860,19 +7838,19 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="B89" s="3">
-        <v>43017.503888888888</v>
+        <v>43017.654085648152</v>
       </c>
       <c r="C89" t="s">
-        <v>367</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
         <v>205</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>280</v>
+        <v>376</v>
       </c>
       <c r="F89" t="s">
         <v>27</v>
@@ -7881,10 +7859,10 @@
         <v>28</v>
       </c>
       <c r="H89" t="s">
-        <v>89</v>
+        <v>306</v>
       </c>
       <c r="I89" t="s">
-        <v>90</v>
+        <v>307</v>
       </c>
       <c r="J89" t="s">
         <v>31</v>
@@ -7893,13 +7871,13 @@
         <v>32</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>281</v>
+        <v>377</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>282</v>
+        <v>378</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>283</v>
+        <v>379</v>
       </c>
       <c r="O89" s="1" t="s">
         <v>36</v>
@@ -7930,31 +7908,31 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>368</v>
+        <v>69</v>
       </c>
       <c r="B90" s="3">
-        <v>43017.546180555553</v>
+        <v>43017.655462962961</v>
       </c>
       <c r="C90" t="s">
-        <v>369</v>
+        <v>70</v>
       </c>
       <c r="D90" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>280</v>
+        <v>72</v>
       </c>
       <c r="F90" t="s">
         <v>27</v>
       </c>
       <c r="G90" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H90" t="s">
-        <v>326</v>
+        <v>73</v>
       </c>
       <c r="I90" t="s">
-        <v>327</v>
+        <v>74</v>
       </c>
       <c r="J90" t="s">
         <v>31</v>
@@ -7963,13 +7941,13 @@
         <v>32</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="O90" s="1" t="s">
         <v>36</v>
@@ -8000,31 +7978,31 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>370</v>
+        <v>119</v>
       </c>
       <c r="B91" s="3">
-        <v>43017.554791666669</v>
+        <v>43017.656307870369</v>
       </c>
       <c r="C91" t="s">
-        <v>371</v>
+        <v>120</v>
       </c>
       <c r="D91" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>280</v>
+        <v>108</v>
       </c>
       <c r="F91" t="s">
         <v>27</v>
       </c>
       <c r="G91" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H91" t="s">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="I91" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="J91" t="s">
         <v>31</v>
@@ -8033,13 +8011,13 @@
         <v>32</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>281</v>
+        <v>111</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>282</v>
+        <v>117</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>283</v>
+        <v>118</v>
       </c>
       <c r="O91" s="1" t="s">
         <v>36</v>
@@ -8070,19 +8048,19 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>372</v>
+        <v>187</v>
       </c>
       <c r="B92" s="3">
-        <v>43028.647118055553</v>
+        <v>43017.712939814817</v>
       </c>
       <c r="C92" t="s">
-        <v>373</v>
+        <v>188</v>
       </c>
       <c r="D92" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>280</v>
+        <v>189</v>
       </c>
       <c r="F92" t="s">
         <v>27</v>
@@ -8091,25 +8069,25 @@
         <v>28</v>
       </c>
       <c r="H92" t="s">
-        <v>292</v>
+        <v>190</v>
       </c>
       <c r="I92" t="s">
-        <v>293</v>
+        <v>191</v>
       </c>
       <c r="J92" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>281</v>
+        <v>192</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c r="O92" s="1" t="s">
         <v>36</v>
@@ -8140,31 +8118,31 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>374</v>
+        <v>94</v>
       </c>
       <c r="B93" s="3">
-        <v>42769.494108796294</v>
+        <v>43018.419293981482</v>
       </c>
       <c r="C93" t="s">
-        <v>375</v>
+        <v>95</v>
       </c>
       <c r="D93" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>376</v>
+        <v>96</v>
       </c>
       <c r="F93" t="s">
         <v>27</v>
       </c>
       <c r="G93" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H93" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="I93" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="J93" t="s">
         <v>31</v>
@@ -8173,13 +8151,13 @@
         <v>32</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>377</v>
+        <v>99</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>378</v>
+        <v>100</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>379</v>
+        <v>101</v>
       </c>
       <c r="O93" s="1" t="s">
         <v>36</v>
@@ -8210,31 +8188,31 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>380</v>
+        <v>102</v>
       </c>
       <c r="B94" s="3">
-        <v>42776.507835648146</v>
+        <v>43018.419849537036</v>
       </c>
       <c r="C94" t="s">
-        <v>381</v>
+        <v>103</v>
       </c>
       <c r="D94" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>376</v>
+        <v>96</v>
       </c>
       <c r="F94" t="s">
         <v>27</v>
       </c>
       <c r="G94" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H94" t="s">
-        <v>310</v>
+        <v>97</v>
       </c>
       <c r="I94" t="s">
-        <v>311</v>
+        <v>98</v>
       </c>
       <c r="J94" t="s">
         <v>31</v>
@@ -8243,13 +8221,13 @@
         <v>32</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>377</v>
+        <v>99</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>378</v>
+        <v>104</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>379</v>
+        <v>105</v>
       </c>
       <c r="O94" s="1" t="s">
         <v>36</v>
@@ -8280,19 +8258,19 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="B95" s="3">
-        <v>42800.680266203701</v>
+        <v>43018.427847222221</v>
       </c>
       <c r="C95" t="s">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="D95" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>376</v>
+        <v>80</v>
       </c>
       <c r="F95" t="s">
         <v>27</v>
@@ -8301,10 +8279,10 @@
         <v>28</v>
       </c>
       <c r="H95" t="s">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="I95" t="s">
-        <v>327</v>
+        <v>82</v>
       </c>
       <c r="J95" t="s">
         <v>31</v>
@@ -8313,13 +8291,13 @@
         <v>32</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>377</v>
+        <v>83</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>378</v>
+        <v>84</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>379</v>
+        <v>85</v>
       </c>
       <c r="O95" s="1" t="s">
         <v>36</v>
@@ -8350,31 +8328,31 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>384</v>
+        <v>121</v>
       </c>
       <c r="B96" s="3">
-        <v>43017.654085648152</v>
+        <v>43018.455671296295</v>
       </c>
       <c r="C96" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D96" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>376</v>
+        <v>108</v>
       </c>
       <c r="F96" t="s">
         <v>27</v>
       </c>
       <c r="G96" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H96" t="s">
-        <v>306</v>
+        <v>97</v>
       </c>
       <c r="I96" t="s">
-        <v>307</v>
+        <v>98</v>
       </c>
       <c r="J96" t="s">
         <v>31</v>
@@ -8383,13 +8361,13 @@
         <v>32</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>377</v>
+        <v>111</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>378</v>
+        <v>117</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>379</v>
+        <v>118</v>
       </c>
       <c r="O96" s="1" t="s">
         <v>36</v>
@@ -8420,31 +8398,31 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>385</v>
+        <v>123</v>
       </c>
       <c r="B97" s="3">
-        <v>42880.371319444443</v>
+        <v>43018.457002314812</v>
       </c>
       <c r="C97" t="s">
-        <v>386</v>
+        <v>124</v>
       </c>
       <c r="D97" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>387</v>
+        <v>108</v>
       </c>
       <c r="F97" t="s">
         <v>27</v>
       </c>
       <c r="G97" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H97" t="s">
-        <v>388</v>
+        <v>97</v>
       </c>
       <c r="I97" t="s">
-        <v>389</v>
+        <v>98</v>
       </c>
       <c r="J97" t="s">
         <v>31</v>
@@ -8453,13 +8431,13 @@
         <v>32</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>390</v>
+        <v>111</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>391</v>
+        <v>125</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>392</v>
+        <v>126</v>
       </c>
       <c r="O97" s="1" t="s">
         <v>36</v>
@@ -8490,19 +8468,19 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>393</v>
+        <v>274</v>
       </c>
       <c r="B98" s="3">
-        <v>43017.551863425928</v>
+        <v>43025.449062500003</v>
       </c>
       <c r="C98" t="s">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="D98" t="s">
         <v>205</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>387</v>
+        <v>234</v>
       </c>
       <c r="F98" t="s">
         <v>27</v>
@@ -8511,10 +8489,10 @@
         <v>28</v>
       </c>
       <c r="H98" t="s">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="I98" t="s">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="J98" t="s">
         <v>31</v>
@@ -8523,13 +8501,13 @@
         <v>32</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>390</v>
+        <v>237</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>391</v>
+        <v>238</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>392</v>
+        <v>239</v>
       </c>
       <c r="O98" s="1" t="s">
         <v>36</v>
@@ -8560,19 +8538,19 @@
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>394</v>
+        <v>195</v>
       </c>
       <c r="B99" s="3">
-        <v>43017.556307870371</v>
+        <v>43027.470925925925</v>
       </c>
       <c r="C99" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="D99" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>387</v>
+        <v>197</v>
       </c>
       <c r="F99" t="s">
         <v>27</v>
@@ -8581,10 +8559,10 @@
         <v>28</v>
       </c>
       <c r="H99" t="s">
-        <v>298</v>
+        <v>198</v>
       </c>
       <c r="I99" t="s">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="J99" t="s">
         <v>31</v>
@@ -8593,13 +8571,13 @@
         <v>32</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>391</v>
+        <v>201</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>392</v>
+        <v>202</v>
       </c>
       <c r="O99" s="1" t="s">
         <v>36</v>
@@ -8630,65 +8608,89 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>395</v>
+        <v>86</v>
       </c>
       <c r="B100" s="3">
-        <v>42759.691458333335</v>
+        <v>43028.55364583333</v>
       </c>
       <c r="C100" t="s">
-        <v>396</v>
+        <v>87</v>
       </c>
       <c r="D100" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>397</v>
+        <v>88</v>
       </c>
       <c r="F100" t="s">
         <v>27</v>
       </c>
       <c r="G100" t="s">
-        <v>398</v>
+        <v>28</v>
       </c>
       <c r="H100" t="s">
-        <v>399</v>
+        <v>89</v>
       </c>
       <c r="I100" t="s">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="J100" t="s">
         <v>31</v>
       </c>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
+      <c r="K100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P100" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>0</v>
+      </c>
+      <c r="R100" s="1">
+        <v>0</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T100" s="1">
+        <v>0</v>
+      </c>
+      <c r="U100" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
-      <c r="X100" s="2"/>
+      <c r="X100" s="2">
+        <v>44651</v>
+      </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="B101" s="3">
-        <v>42776.616759259261</v>
+        <v>43028.647118055553</v>
       </c>
       <c r="C101" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="D101" t="s">
         <v>205</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>403</v>
+        <v>280</v>
       </c>
       <c r="F101" t="s">
         <v>27</v>
@@ -8697,25 +8699,25 @@
         <v>28</v>
       </c>
       <c r="H101" t="s">
-        <v>109</v>
+        <v>292</v>
       </c>
       <c r="I101" t="s">
-        <v>110</v>
+        <v>293</v>
       </c>
       <c r="J101" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>404</v>
+        <v>281</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>405</v>
+        <v>282</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>406</v>
+        <v>283</v>
       </c>
       <c r="O101" s="1" t="s">
         <v>36</v>
@@ -8746,19 +8748,19 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>407</v>
+        <v>139</v>
       </c>
       <c r="B102" s="3">
-        <v>42850.685868055552</v>
+        <v>43031.549537037034</v>
       </c>
       <c r="C102" t="s">
-        <v>408</v>
+        <v>140</v>
       </c>
       <c r="D102" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>403</v>
+        <v>131</v>
       </c>
       <c r="F102" t="s">
         <v>27</v>
@@ -8767,25 +8769,25 @@
         <v>28</v>
       </c>
       <c r="H102" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="I102" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="J102" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>404</v>
+        <v>132</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>405</v>
+        <v>133</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>406</v>
+        <v>134</v>
       </c>
       <c r="O102" s="1" t="s">
         <v>36</v>
@@ -8816,19 +8818,19 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>409</v>
+        <v>127</v>
       </c>
       <c r="B103" s="3">
-        <v>42956.671134259261</v>
+        <v>43032.652673611112</v>
       </c>
       <c r="C103" t="s">
-        <v>410</v>
+        <v>128</v>
       </c>
       <c r="D103" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>403</v>
+        <v>108</v>
       </c>
       <c r="F103" t="s">
         <v>27</v>
@@ -8837,10 +8839,10 @@
         <v>28</v>
       </c>
       <c r="H103" t="s">
-        <v>340</v>
+        <v>89</v>
       </c>
       <c r="I103" t="s">
-        <v>341</v>
+        <v>90</v>
       </c>
       <c r="J103" t="s">
         <v>31</v>
@@ -8849,13 +8851,13 @@
         <v>32</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>404</v>
+        <v>111</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>405</v>
+        <v>125</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>406</v>
+        <v>126</v>
       </c>
       <c r="O103" s="1" t="s">
         <v>36</v>
@@ -8886,19 +8888,19 @@
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>411</v>
+        <v>144</v>
       </c>
       <c r="B104" s="3">
-        <v>42975.644756944443</v>
+        <v>43040.487187500003</v>
       </c>
       <c r="C104" t="s">
-        <v>412</v>
+        <v>145</v>
       </c>
       <c r="D104" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>403</v>
+        <v>131</v>
       </c>
       <c r="F104" t="s">
         <v>27</v>
@@ -8907,10 +8909,10 @@
         <v>28</v>
       </c>
       <c r="H104" t="s">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="I104" t="s">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="J104" t="s">
         <v>31</v>
@@ -8919,13 +8921,13 @@
         <v>32</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>404</v>
+        <v>132</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>405</v>
+        <v>146</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>406</v>
+        <v>147</v>
       </c>
       <c r="O104" s="1" t="s">
         <v>36</v>
@@ -8956,19 +8958,19 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>413</v>
+        <v>224</v>
       </c>
       <c r="B105" s="3">
-        <v>42976.434074074074</v>
+        <v>43042.497118055559</v>
       </c>
       <c r="C105" t="s">
-        <v>414</v>
+        <v>225</v>
       </c>
       <c r="D105" t="s">
         <v>205</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>403</v>
+        <v>206</v>
       </c>
       <c r="F105" t="s">
         <v>27</v>
@@ -8977,10 +8979,10 @@
         <v>28</v>
       </c>
       <c r="H105" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="I105" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="J105" t="s">
         <v>31</v>
@@ -8989,13 +8991,13 @@
         <v>32</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>404</v>
+        <v>209</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>405</v>
+        <v>210</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>406</v>
+        <v>211</v>
       </c>
       <c r="O105" s="1" t="s">
         <v>36</v>
@@ -9026,19 +9028,19 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>415</v>
+        <v>228</v>
       </c>
       <c r="B106" s="3">
-        <v>43012.651770833334</v>
+        <v>43056.374525462961</v>
       </c>
       <c r="C106" t="s">
-        <v>416</v>
+        <v>229</v>
       </c>
       <c r="D106" t="s">
         <v>205</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>403</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
         <v>27</v>
@@ -9047,10 +9049,10 @@
         <v>28</v>
       </c>
       <c r="H106" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="I106" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="J106" t="s">
         <v>31</v>
@@ -9059,13 +9061,13 @@
         <v>32</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>404</v>
+        <v>209</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>405</v>
+        <v>210</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>406</v>
+        <v>211</v>
       </c>
       <c r="O106" s="1" t="s">
         <v>36</v>
@@ -9096,19 +9098,19 @@
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>417</v>
+        <v>183</v>
       </c>
       <c r="B107" s="3">
-        <v>43012.652106481481</v>
+        <v>43080.429189814815</v>
       </c>
       <c r="C107" t="s">
-        <v>418</v>
+        <v>184</v>
       </c>
       <c r="D107" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>403</v>
+        <v>61</v>
       </c>
       <c r="F107" t="s">
         <v>27</v>
@@ -9117,10 +9119,10 @@
         <v>28</v>
       </c>
       <c r="H107" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="I107" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="J107" t="s">
         <v>31</v>
@@ -9129,13 +9131,13 @@
         <v>32</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>404</v>
+        <v>164</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>405</v>
+        <v>165</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>406</v>
+        <v>166</v>
       </c>
       <c r="O107" s="1" t="s">
         <v>36</v>
